--- a/data_table/EntityAttrLevel.xlsx
+++ b/data_table/EntityAttrLevel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="75">
   <si>
     <t>#</t>
   </si>
@@ -51,6 +51,9 @@
     <t>moveSpeed</t>
   </si>
   <si>
+    <t>attackRange</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
   </si>
   <si>
     <t>移动速度(*1000)</t>
+  </si>
+  <si>
+    <t>攻击距离(*1000)</t>
   </si>
   <si>
     <t>上官翎</t>
@@ -242,16 +248,70 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -271,15 +331,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,76 +384,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -378,24 +400,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +413,18 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -422,7 +440,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,13 +500,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,108 +536,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -572,13 +548,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +584,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,6 +607,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -615,6 +630,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,39 +685,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -687,17 +699,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,133 +727,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1230,10 +1236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30:L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1243,9 +1249,10 @@
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1279,78 +1286,87 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:11">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1364,28 +1380,31 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>27</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1399,10 +1418,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="6">
         <v>2</v>
@@ -1419,8 +1438,11 @@
       <c r="K5" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1434,10 +1456,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6" s="6">
         <v>4</v>
@@ -1454,8 +1476,11 @@
       <c r="K6" s="8">
         <v>150</v>
       </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:11">
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:12">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1469,10 +1494,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" s="6">
         <v>6</v>
@@ -1489,8 +1514,11 @@
       <c r="K7" s="8">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1504,10 +1532,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8" s="6">
         <v>8</v>
@@ -1524,8 +1552,11 @@
       <c r="K8" s="8">
         <v>250</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1539,10 +1570,10 @@
         <v>6</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G9" s="6">
         <v>10</v>
@@ -1559,8 +1590,11 @@
       <c r="K9" s="8">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1574,10 +1608,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G10" s="6">
         <v>12</v>
@@ -1594,8 +1628,11 @@
       <c r="K10" s="8">
         <v>350</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1609,10 +1646,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11" s="6">
         <v>14</v>
@@ -1629,8 +1666,11 @@
       <c r="K11" s="8">
         <v>400</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1644,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12" s="6">
         <v>16</v>
@@ -1664,8 +1704,11 @@
       <c r="K12" s="8">
         <v>450</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1679,10 +1722,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" s="6">
         <v>18</v>
@@ -1699,8 +1742,11 @@
       <c r="K13" s="8">
         <v>500</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1714,10 +1760,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G14" s="6">
         <v>20</v>
@@ -1734,8 +1780,11 @@
       <c r="K14" s="8">
         <v>550</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1749,10 +1798,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G15" s="6">
         <v>22</v>
@@ -1769,8 +1818,11 @@
       <c r="K15" s="8">
         <v>600</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1784,10 +1836,10 @@
         <v>13</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16" s="6">
         <v>24</v>
@@ -1804,8 +1856,11 @@
       <c r="K16" s="8">
         <v>650</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1819,10 +1874,10 @@
         <v>14</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G17" s="6">
         <v>26</v>
@@ -1839,8 +1894,11 @@
       <c r="K17" s="8">
         <v>700</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1854,10 +1912,10 @@
         <v>15</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G18" s="6">
         <v>28</v>
@@ -1874,8 +1932,11 @@
       <c r="K18" s="8">
         <v>750</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1889,10 +1950,10 @@
         <v>16</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G19" s="6">
         <v>30</v>
@@ -1909,8 +1970,11 @@
       <c r="K19" s="8">
         <v>800</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1924,10 +1988,10 @@
         <v>17</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G20" s="6">
         <v>32</v>
@@ -1944,8 +2008,11 @@
       <c r="K20" s="8">
         <v>850</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1959,10 +2026,10 @@
         <v>18</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G21" s="6">
         <v>34</v>
@@ -1979,8 +2046,11 @@
       <c r="K21" s="8">
         <v>900</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1994,10 +2064,10 @@
         <v>19</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G22" s="6">
         <v>36</v>
@@ -2014,8 +2084,11 @@
       <c r="K22" s="8">
         <v>950</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2029,10 +2102,10 @@
         <v>20</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G23" s="6">
         <v>38</v>
@@ -2049,8 +2122,11 @@
       <c r="K23" s="8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2064,10 +2140,10 @@
         <v>21</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G24" s="6">
         <v>40</v>
@@ -2084,8 +2160,11 @@
       <c r="K24" s="8">
         <v>1050</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2099,10 +2178,10 @@
         <v>22</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G25" s="6">
         <v>42</v>
@@ -2119,8 +2198,11 @@
       <c r="K25" s="8">
         <v>1100</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2134,10 +2216,10 @@
         <v>23</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G26" s="6">
         <v>44</v>
@@ -2154,8 +2236,11 @@
       <c r="K26" s="8">
         <v>1150</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2169,10 +2254,10 @@
         <v>24</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G27" s="6">
         <v>46</v>
@@ -2189,8 +2274,11 @@
       <c r="K27" s="8">
         <v>1200</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2204,10 +2292,10 @@
         <v>25</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G28" s="6">
         <v>48</v>
@@ -2223,6 +2311,9 @@
       </c>
       <c r="K28" s="8">
         <v>1250</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="6:11">
@@ -2233,7 +2324,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2247,28 +2338,31 @@
         <v>1</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>27</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2282,10 +2376,10 @@
         <v>2</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G31" s="6">
         <v>11</v>
@@ -2302,8 +2396,11 @@
       <c r="K31" s="8">
         <v>500</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2317,10 +2414,10 @@
         <v>3</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G32" s="6">
         <v>12</v>
@@ -2337,8 +2434,11 @@
       <c r="K32" s="8">
         <v>501</v>
       </c>
-    </row>
-    <row r="33" ht="15" customHeight="1" spans="1:11">
+      <c r="L32" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" spans="1:12">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2352,10 +2452,10 @@
         <v>4</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G33" s="6">
         <v>13</v>
@@ -2372,8 +2472,11 @@
       <c r="K33" s="8">
         <v>502</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2387,10 +2490,10 @@
         <v>5</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G34" s="6">
         <v>14</v>
@@ -2407,8 +2510,11 @@
       <c r="K34" s="8">
         <v>503</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2422,10 +2528,10 @@
         <v>6</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G35" s="6">
         <v>15</v>
@@ -2442,8 +2548,11 @@
       <c r="K35" s="8">
         <v>504</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2457,10 +2566,10 @@
         <v>7</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G36" s="6">
         <v>16</v>
@@ -2477,8 +2586,11 @@
       <c r="K36" s="8">
         <v>505</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2492,10 +2604,10 @@
         <v>8</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G37" s="6">
         <v>17</v>
@@ -2512,8 +2624,11 @@
       <c r="K37" s="8">
         <v>506</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2527,10 +2642,10 @@
         <v>9</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G38" s="6">
         <v>18</v>
@@ -2547,8 +2662,11 @@
       <c r="K38" s="8">
         <v>507</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2562,10 +2680,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G39" s="6">
         <v>19</v>
@@ -2582,8 +2700,11 @@
       <c r="K39" s="8">
         <v>508</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2597,10 +2718,10 @@
         <v>11</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G40" s="6">
         <v>20</v>
@@ -2617,8 +2738,11 @@
       <c r="K40" s="8">
         <v>509</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2632,10 +2756,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G41" s="6">
         <v>21</v>
@@ -2652,8 +2776,11 @@
       <c r="K41" s="8">
         <v>510</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2667,10 +2794,10 @@
         <v>13</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G42" s="6">
         <v>22</v>
@@ -2687,8 +2814,11 @@
       <c r="K42" s="8">
         <v>511</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2702,10 +2832,10 @@
         <v>14</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G43" s="6">
         <v>23</v>
@@ -2722,8 +2852,11 @@
       <c r="K43" s="8">
         <v>512</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2737,10 +2870,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G44" s="6">
         <v>24</v>
@@ -2757,8 +2890,11 @@
       <c r="K44" s="8">
         <v>513</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2772,10 +2908,10 @@
         <v>16</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G45" s="6">
         <v>25</v>
@@ -2792,8 +2928,11 @@
       <c r="K45" s="8">
         <v>514</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2807,10 +2946,10 @@
         <v>17</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G46" s="6">
         <v>26</v>
@@ -2827,8 +2966,11 @@
       <c r="K46" s="8">
         <v>515</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -2842,10 +2984,10 @@
         <v>18</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G47" s="6">
         <v>27</v>
@@ -2862,8 +3004,11 @@
       <c r="K47" s="8">
         <v>516</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2877,10 +3022,10 @@
         <v>19</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G48" s="6">
         <v>28</v>
@@ -2897,8 +3042,11 @@
       <c r="K48" s="8">
         <v>517</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2912,10 +3060,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G49" s="6">
         <v>29</v>
@@ -2932,8 +3080,11 @@
       <c r="K49" s="8">
         <v>518</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2947,10 +3098,10 @@
         <v>21</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G50" s="6">
         <v>30</v>
@@ -2967,8 +3118,11 @@
       <c r="K50" s="8">
         <v>519</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2982,10 +3136,10 @@
         <v>22</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G51" s="6">
         <v>31</v>
@@ -3002,8 +3156,11 @@
       <c r="K51" s="8">
         <v>520</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -3017,10 +3174,10 @@
         <v>23</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G52" s="6">
         <v>32</v>
@@ -3037,8 +3194,11 @@
       <c r="K52" s="8">
         <v>521</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -3052,10 +3212,10 @@
         <v>24</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G53" s="6">
         <v>33</v>
@@ -3072,8 +3232,11 @@
       <c r="K53" s="8">
         <v>522</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -3087,10 +3250,10 @@
         <v>25</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G54" s="6">
         <v>34</v>
@@ -3106,6 +3269,9 @@
       </c>
       <c r="K54" s="8">
         <v>523</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/EntityAttrLevel.xlsx
+++ b/data_table/EntityAttrLevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>entityId</t>
+    <t>templateId</t>
   </si>
   <si>
     <t>level</t>
@@ -66,7 +66,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>对应实体 id</t>
+    <t>作为模板 id</t>
   </si>
   <si>
     <t>等级</t>
@@ -248,11 +248,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -263,17 +263,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,9 +278,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,7 +300,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -318,7 +324,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,15 +353,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,46 +378,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,7 +416,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,7 +446,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,13 +494,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,37 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,13 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,13 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,7 +578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,43 +590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,8 +613,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,36 +634,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -671,15 +641,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,8 +663,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,133 +727,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1238,8 +1238,8 @@
   <sheetPr/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30:L54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1374,7 +1374,7 @@
         <v>11001001</v>
       </c>
       <c r="C4">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -1412,7 +1412,7 @@
         <v>11001002</v>
       </c>
       <c r="C5">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -1450,7 +1450,7 @@
         <v>11001003</v>
       </c>
       <c r="C6">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
@@ -1488,7 +1488,7 @@
         <v>11001004</v>
       </c>
       <c r="C7">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4">
         <v>4</v>
@@ -1526,7 +1526,7 @@
         <v>11001005</v>
       </c>
       <c r="C8">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
@@ -1564,7 +1564,7 @@
         <v>11001006</v>
       </c>
       <c r="C9">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4">
         <v>6</v>
@@ -1602,7 +1602,7 @@
         <v>11001007</v>
       </c>
       <c r="C10">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4">
         <v>7</v>
@@ -1640,7 +1640,7 @@
         <v>11001008</v>
       </c>
       <c r="C11">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D11" s="4">
         <v>8</v>
@@ -1678,7 +1678,7 @@
         <v>11001009</v>
       </c>
       <c r="C12">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4">
         <v>9</v>
@@ -1716,7 +1716,7 @@
         <v>11001010</v>
       </c>
       <c r="C13">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D13" s="4">
         <v>10</v>
@@ -1754,7 +1754,7 @@
         <v>11001011</v>
       </c>
       <c r="C14">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4">
         <v>11</v>
@@ -1792,7 +1792,7 @@
         <v>11001012</v>
       </c>
       <c r="C15">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4">
         <v>12</v>
@@ -1830,7 +1830,7 @@
         <v>11001013</v>
       </c>
       <c r="C16">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D16" s="4">
         <v>13</v>
@@ -1868,7 +1868,7 @@
         <v>11001014</v>
       </c>
       <c r="C17">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D17" s="4">
         <v>14</v>
@@ -1906,7 +1906,7 @@
         <v>11001015</v>
       </c>
       <c r="C18">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4">
         <v>15</v>
@@ -1944,7 +1944,7 @@
         <v>11001016</v>
       </c>
       <c r="C19">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D19" s="4">
         <v>16</v>
@@ -1982,7 +1982,7 @@
         <v>11001017</v>
       </c>
       <c r="C20">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4">
         <v>17</v>
@@ -2020,7 +2020,7 @@
         <v>11001018</v>
       </c>
       <c r="C21">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D21" s="4">
         <v>18</v>
@@ -2058,7 +2058,7 @@
         <v>11001019</v>
       </c>
       <c r="C22">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D22" s="4">
         <v>19</v>
@@ -2096,7 +2096,7 @@
         <v>11001020</v>
       </c>
       <c r="C23">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D23" s="4">
         <v>20</v>
@@ -2134,7 +2134,7 @@
         <v>11001021</v>
       </c>
       <c r="C24">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D24" s="4">
         <v>21</v>
@@ -2172,7 +2172,7 @@
         <v>11001022</v>
       </c>
       <c r="C25">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D25" s="4">
         <v>22</v>
@@ -2210,7 +2210,7 @@
         <v>11001023</v>
       </c>
       <c r="C26">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D26" s="4">
         <v>23</v>
@@ -2248,7 +2248,7 @@
         <v>11001024</v>
       </c>
       <c r="C27">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D27" s="4">
         <v>24</v>
@@ -2286,7 +2286,7 @@
         <v>11001025</v>
       </c>
       <c r="C28">
-        <v>1000001</v>
+        <v>1</v>
       </c>
       <c r="D28" s="4">
         <v>25</v>
@@ -2332,7 +2332,7 @@
         <v>11002001</v>
       </c>
       <c r="C30">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -2370,7 +2370,7 @@
         <v>11002002</v>
       </c>
       <c r="C31">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D31" s="4">
         <v>2</v>
@@ -2408,7 +2408,7 @@
         <v>11002003</v>
       </c>
       <c r="C32">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D32" s="4">
         <v>3</v>
@@ -2446,7 +2446,7 @@
         <v>11002004</v>
       </c>
       <c r="C33">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D33" s="4">
         <v>4</v>
@@ -2484,7 +2484,7 @@
         <v>11002005</v>
       </c>
       <c r="C34">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D34" s="4">
         <v>5</v>
@@ -2522,7 +2522,7 @@
         <v>11002006</v>
       </c>
       <c r="C35">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D35" s="4">
         <v>6</v>
@@ -2560,7 +2560,7 @@
         <v>11002007</v>
       </c>
       <c r="C36">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D36" s="4">
         <v>7</v>
@@ -2598,7 +2598,7 @@
         <v>11002008</v>
       </c>
       <c r="C37">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D37" s="4">
         <v>8</v>
@@ -2636,7 +2636,7 @@
         <v>11002009</v>
       </c>
       <c r="C38">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D38" s="4">
         <v>9</v>
@@ -2674,7 +2674,7 @@
         <v>11002010</v>
       </c>
       <c r="C39">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D39" s="4">
         <v>10</v>
@@ -2712,7 +2712,7 @@
         <v>11002011</v>
       </c>
       <c r="C40">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D40" s="4">
         <v>11</v>
@@ -2750,7 +2750,7 @@
         <v>11002012</v>
       </c>
       <c r="C41">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D41" s="4">
         <v>12</v>
@@ -2788,7 +2788,7 @@
         <v>11002013</v>
       </c>
       <c r="C42">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D42" s="4">
         <v>13</v>
@@ -2826,7 +2826,7 @@
         <v>11002014</v>
       </c>
       <c r="C43">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D43" s="4">
         <v>14</v>
@@ -2864,7 +2864,7 @@
         <v>11002015</v>
       </c>
       <c r="C44">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D44" s="4">
         <v>15</v>
@@ -2902,7 +2902,7 @@
         <v>11002016</v>
       </c>
       <c r="C45">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D45" s="4">
         <v>16</v>
@@ -2940,7 +2940,7 @@
         <v>11002017</v>
       </c>
       <c r="C46">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D46" s="4">
         <v>17</v>
@@ -2978,7 +2978,7 @@
         <v>11002018</v>
       </c>
       <c r="C47">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D47" s="4">
         <v>18</v>
@@ -3016,7 +3016,7 @@
         <v>11002019</v>
       </c>
       <c r="C48">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D48" s="4">
         <v>19</v>
@@ -3054,7 +3054,7 @@
         <v>11002020</v>
       </c>
       <c r="C49">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D49" s="4">
         <v>20</v>
@@ -3092,7 +3092,7 @@
         <v>11002021</v>
       </c>
       <c r="C50">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D50" s="4">
         <v>21</v>
@@ -3130,7 +3130,7 @@
         <v>11002022</v>
       </c>
       <c r="C51">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D51" s="4">
         <v>22</v>
@@ -3168,7 +3168,7 @@
         <v>11002023</v>
       </c>
       <c r="C52">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D52" s="4">
         <v>23</v>
@@ -3206,7 +3206,7 @@
         <v>11002024</v>
       </c>
       <c r="C53">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D53" s="4">
         <v>24</v>
@@ -3244,7 +3244,7 @@
         <v>11002025</v>
       </c>
       <c r="C54">
-        <v>1000002</v>
+        <v>2</v>
       </c>
       <c r="D54" s="4">
         <v>25</v>

--- a/data_table/EntityAttrLevel.xlsx
+++ b/data_table/EntityAttrLevel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -102,135 +102,69 @@
     <t>0</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>150</t>
+    <t>凤紫夕</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
   </si>
   <si>
     <t>160</t>
   </si>
   <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
     <t>170</t>
   </si>
   <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>凤紫夕</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
     <t>171</t>
   </si>
   <si>
@@ -241,6 +175,9 @@
   </si>
   <si>
     <t>174</t>
+  </si>
+  <si>
+    <t>怪物1类</t>
   </si>
 </sst>
 </file>
@@ -248,8 +185,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
@@ -264,22 +201,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,24 +228,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,68 +253,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -400,8 +275,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,7 +353,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,31 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,79 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,19 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,31 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,15 +544,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -634,13 +562,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,15 +606,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,23 +628,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,133 +664,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1236,10 +1173,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1382,8 +1319,8 @@
       <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>27</v>
+      <c r="F4" s="6">
+        <v>0</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>27</v>
@@ -1420,8 +1357,8 @@
       <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>28</v>
+      <c r="F5" s="6">
+        <v>0</v>
       </c>
       <c r="G5" s="6">
         <v>2</v>
@@ -1458,8 +1395,8 @@
       <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>29</v>
+      <c r="F6" s="6">
+        <v>10000</v>
       </c>
       <c r="G6" s="6">
         <v>4</v>
@@ -1496,8 +1433,8 @@
       <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>30</v>
+      <c r="F7" s="6">
+        <v>10000</v>
       </c>
       <c r="G7" s="6">
         <v>6</v>
@@ -1534,8 +1471,8 @@
       <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>31</v>
+      <c r="F8" s="6">
+        <v>10000</v>
       </c>
       <c r="G8" s="6">
         <v>8</v>
@@ -1572,8 +1509,8 @@
       <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>32</v>
+      <c r="F9" s="6">
+        <v>10000</v>
       </c>
       <c r="G9" s="6">
         <v>10</v>
@@ -1610,8 +1547,8 @@
       <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>33</v>
+      <c r="F10" s="6">
+        <v>10000</v>
       </c>
       <c r="G10" s="6">
         <v>12</v>
@@ -1648,8 +1585,8 @@
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>34</v>
+      <c r="F11" s="6">
+        <v>10000</v>
       </c>
       <c r="G11" s="6">
         <v>14</v>
@@ -1686,8 +1623,8 @@
       <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>35</v>
+      <c r="F12" s="6">
+        <v>10000</v>
       </c>
       <c r="G12" s="6">
         <v>16</v>
@@ -1724,8 +1661,8 @@
       <c r="E13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>36</v>
+      <c r="F13" s="6">
+        <v>10000</v>
       </c>
       <c r="G13" s="6">
         <v>18</v>
@@ -1762,8 +1699,8 @@
       <c r="E14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>37</v>
+      <c r="F14" s="6">
+        <v>10000</v>
       </c>
       <c r="G14" s="6">
         <v>20</v>
@@ -1800,8 +1737,8 @@
       <c r="E15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>38</v>
+      <c r="F15" s="6">
+        <v>10000</v>
       </c>
       <c r="G15" s="6">
         <v>22</v>
@@ -1838,8 +1775,8 @@
       <c r="E16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>39</v>
+      <c r="F16" s="6">
+        <v>10000</v>
       </c>
       <c r="G16" s="6">
         <v>24</v>
@@ -1876,8 +1813,8 @@
       <c r="E17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>40</v>
+      <c r="F17" s="6">
+        <v>10000</v>
       </c>
       <c r="G17" s="6">
         <v>26</v>
@@ -1914,8 +1851,8 @@
       <c r="E18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>41</v>
+      <c r="F18" s="6">
+        <v>10000</v>
       </c>
       <c r="G18" s="6">
         <v>28</v>
@@ -1952,8 +1889,8 @@
       <c r="E19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>42</v>
+      <c r="F19" s="6">
+        <v>10000</v>
       </c>
       <c r="G19" s="6">
         <v>30</v>
@@ -1990,8 +1927,8 @@
       <c r="E20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>43</v>
+      <c r="F20" s="6">
+        <v>10000</v>
       </c>
       <c r="G20" s="6">
         <v>32</v>
@@ -2028,8 +1965,8 @@
       <c r="E21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>44</v>
+      <c r="F21" s="6">
+        <v>10000</v>
       </c>
       <c r="G21" s="6">
         <v>34</v>
@@ -2066,8 +2003,8 @@
       <c r="E22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>45</v>
+      <c r="F22" s="6">
+        <v>10000</v>
       </c>
       <c r="G22" s="6">
         <v>36</v>
@@ -2104,8 +2041,8 @@
       <c r="E23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>46</v>
+      <c r="F23" s="6">
+        <v>10000</v>
       </c>
       <c r="G23" s="6">
         <v>38</v>
@@ -2142,8 +2079,8 @@
       <c r="E24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>47</v>
+      <c r="F24" s="6">
+        <v>10000</v>
       </c>
       <c r="G24" s="6">
         <v>40</v>
@@ -2180,8 +2117,8 @@
       <c r="E25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>48</v>
+      <c r="F25" s="6">
+        <v>10000</v>
       </c>
       <c r="G25" s="6">
         <v>42</v>
@@ -2218,8 +2155,8 @@
       <c r="E26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>49</v>
+      <c r="F26" s="6">
+        <v>10000</v>
       </c>
       <c r="G26" s="6">
         <v>44</v>
@@ -2256,8 +2193,8 @@
       <c r="E27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>50</v>
+      <c r="F27" s="6">
+        <v>10000</v>
       </c>
       <c r="G27" s="6">
         <v>46</v>
@@ -2294,8 +2231,8 @@
       <c r="E28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>51</v>
+      <c r="F28" s="6">
+        <v>10000</v>
       </c>
       <c r="G28" s="6">
         <v>48</v>
@@ -2338,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>27</v>
@@ -2376,10 +2313,10 @@
         <v>2</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="G31" s="6">
         <v>11</v>
@@ -2414,10 +2351,10 @@
         <v>3</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G32" s="6">
         <v>12</v>
@@ -2452,10 +2389,10 @@
         <v>4</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G33" s="6">
         <v>13</v>
@@ -2490,10 +2427,10 @@
         <v>5</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="G34" s="6">
         <v>14</v>
@@ -2528,10 +2465,10 @@
         <v>6</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G35" s="6">
         <v>15</v>
@@ -2566,10 +2503,10 @@
         <v>7</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G36" s="6">
         <v>16</v>
@@ -2604,10 +2541,10 @@
         <v>8</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="G37" s="6">
         <v>17</v>
@@ -2642,10 +2579,10 @@
         <v>9</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G38" s="6">
         <v>18</v>
@@ -2680,10 +2617,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="G39" s="6">
         <v>19</v>
@@ -2718,10 +2655,10 @@
         <v>11</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G40" s="6">
         <v>20</v>
@@ -2756,10 +2693,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G41" s="6">
         <v>21</v>
@@ -2794,10 +2731,10 @@
         <v>13</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="G42" s="6">
         <v>22</v>
@@ -2832,10 +2769,10 @@
         <v>14</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G43" s="6">
         <v>23</v>
@@ -2870,10 +2807,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="G44" s="6">
         <v>24</v>
@@ -2908,10 +2845,10 @@
         <v>16</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G45" s="6">
         <v>25</v>
@@ -2946,10 +2883,10 @@
         <v>17</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="G46" s="6">
         <v>26</v>
@@ -2984,10 +2921,10 @@
         <v>18</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G47" s="6">
         <v>27</v>
@@ -3022,10 +2959,10 @@
         <v>19</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="G48" s="6">
         <v>28</v>
@@ -3060,10 +2997,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G49" s="6">
         <v>29</v>
@@ -3098,10 +3035,10 @@
         <v>21</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G50" s="6">
         <v>30</v>
@@ -3136,10 +3073,10 @@
         <v>22</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G51" s="6">
         <v>31</v>
@@ -3174,10 +3111,10 @@
         <v>23</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G52" s="6">
         <v>32</v>
@@ -3212,10 +3149,10 @@
         <v>24</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G53" s="6">
         <v>33</v>
@@ -3250,10 +3187,10 @@
         <v>25</v>
       </c>
       <c r="E54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="G54" s="6">
         <v>34</v>
@@ -3271,6 +3208,956 @@
         <v>523</v>
       </c>
       <c r="L54" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>11101001</v>
+      </c>
+      <c r="C56">
+        <v>10001</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>11101002</v>
+      </c>
+      <c r="C57">
+        <v>10001</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1</v>
+      </c>
+      <c r="G57" s="6">
+        <v>1</v>
+      </c>
+      <c r="H57" s="6">
+        <v>1</v>
+      </c>
+      <c r="I57" s="6">
+        <v>1</v>
+      </c>
+      <c r="J57" s="6">
+        <v>1</v>
+      </c>
+      <c r="K57" s="6">
+        <v>1</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>11101003</v>
+      </c>
+      <c r="C58">
+        <v>10001</v>
+      </c>
+      <c r="D58" s="4">
+        <v>3</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" s="6">
+        <v>2</v>
+      </c>
+      <c r="G58" s="6">
+        <v>2</v>
+      </c>
+      <c r="H58" s="6">
+        <v>2</v>
+      </c>
+      <c r="I58" s="6">
+        <v>2</v>
+      </c>
+      <c r="J58" s="6">
+        <v>2</v>
+      </c>
+      <c r="K58" s="6">
+        <v>2</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" ht="15" customHeight="1" spans="1:12">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>11101004</v>
+      </c>
+      <c r="C59">
+        <v>10001</v>
+      </c>
+      <c r="D59" s="4">
+        <v>4</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" s="6">
+        <v>3</v>
+      </c>
+      <c r="G59" s="6">
+        <v>3</v>
+      </c>
+      <c r="H59" s="6">
+        <v>3</v>
+      </c>
+      <c r="I59" s="6">
+        <v>3</v>
+      </c>
+      <c r="J59" s="6">
+        <v>3</v>
+      </c>
+      <c r="K59" s="6">
+        <v>3</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>11101005</v>
+      </c>
+      <c r="C60">
+        <v>10001</v>
+      </c>
+      <c r="D60" s="4">
+        <v>5</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60" s="6">
+        <v>4</v>
+      </c>
+      <c r="G60" s="6">
+        <v>4</v>
+      </c>
+      <c r="H60" s="6">
+        <v>4</v>
+      </c>
+      <c r="I60" s="6">
+        <v>4</v>
+      </c>
+      <c r="J60" s="6">
+        <v>4</v>
+      </c>
+      <c r="K60" s="6">
+        <v>4</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>11101006</v>
+      </c>
+      <c r="C61">
+        <v>10001</v>
+      </c>
+      <c r="D61" s="4">
+        <v>6</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="6">
+        <v>5</v>
+      </c>
+      <c r="G61" s="6">
+        <v>5</v>
+      </c>
+      <c r="H61" s="6">
+        <v>5</v>
+      </c>
+      <c r="I61" s="6">
+        <v>5</v>
+      </c>
+      <c r="J61" s="6">
+        <v>5</v>
+      </c>
+      <c r="K61" s="6">
+        <v>5</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>11101007</v>
+      </c>
+      <c r="C62">
+        <v>10001</v>
+      </c>
+      <c r="D62" s="4">
+        <v>7</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" s="6">
+        <v>6</v>
+      </c>
+      <c r="G62" s="6">
+        <v>6</v>
+      </c>
+      <c r="H62" s="6">
+        <v>6</v>
+      </c>
+      <c r="I62" s="6">
+        <v>6</v>
+      </c>
+      <c r="J62" s="6">
+        <v>6</v>
+      </c>
+      <c r="K62" s="6">
+        <v>6</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>11101008</v>
+      </c>
+      <c r="C63">
+        <v>10001</v>
+      </c>
+      <c r="D63" s="4">
+        <v>8</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" s="6">
+        <v>7</v>
+      </c>
+      <c r="G63" s="6">
+        <v>7</v>
+      </c>
+      <c r="H63" s="6">
+        <v>7</v>
+      </c>
+      <c r="I63" s="6">
+        <v>7</v>
+      </c>
+      <c r="J63" s="6">
+        <v>7</v>
+      </c>
+      <c r="K63" s="6">
+        <v>7</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>11101009</v>
+      </c>
+      <c r="C64">
+        <v>10001</v>
+      </c>
+      <c r="D64" s="4">
+        <v>9</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F64" s="6">
+        <v>8</v>
+      </c>
+      <c r="G64" s="6">
+        <v>8</v>
+      </c>
+      <c r="H64" s="6">
+        <v>8</v>
+      </c>
+      <c r="I64" s="6">
+        <v>8</v>
+      </c>
+      <c r="J64" s="6">
+        <v>8</v>
+      </c>
+      <c r="K64" s="6">
+        <v>8</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>11101010</v>
+      </c>
+      <c r="C65">
+        <v>10001</v>
+      </c>
+      <c r="D65" s="4">
+        <v>10</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F65" s="6">
+        <v>9</v>
+      </c>
+      <c r="G65" s="6">
+        <v>9</v>
+      </c>
+      <c r="H65" s="6">
+        <v>9</v>
+      </c>
+      <c r="I65" s="6">
+        <v>9</v>
+      </c>
+      <c r="J65" s="6">
+        <v>9</v>
+      </c>
+      <c r="K65" s="6">
+        <v>9</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>11101011</v>
+      </c>
+      <c r="C66">
+        <v>10001</v>
+      </c>
+      <c r="D66" s="4">
+        <v>11</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" s="6">
+        <v>10</v>
+      </c>
+      <c r="G66" s="6">
+        <v>10</v>
+      </c>
+      <c r="H66" s="6">
+        <v>10</v>
+      </c>
+      <c r="I66" s="6">
+        <v>10</v>
+      </c>
+      <c r="J66" s="6">
+        <v>10</v>
+      </c>
+      <c r="K66" s="6">
+        <v>10</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>11101012</v>
+      </c>
+      <c r="C67">
+        <v>10001</v>
+      </c>
+      <c r="D67" s="4">
+        <v>12</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" s="6">
+        <v>11</v>
+      </c>
+      <c r="G67" s="6">
+        <v>11</v>
+      </c>
+      <c r="H67" s="6">
+        <v>11</v>
+      </c>
+      <c r="I67" s="6">
+        <v>11</v>
+      </c>
+      <c r="J67" s="6">
+        <v>11</v>
+      </c>
+      <c r="K67" s="6">
+        <v>11</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>11101013</v>
+      </c>
+      <c r="C68">
+        <v>10001</v>
+      </c>
+      <c r="D68" s="4">
+        <v>13</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F68" s="6">
+        <v>12</v>
+      </c>
+      <c r="G68" s="6">
+        <v>12</v>
+      </c>
+      <c r="H68" s="6">
+        <v>12</v>
+      </c>
+      <c r="I68" s="6">
+        <v>12</v>
+      </c>
+      <c r="J68" s="6">
+        <v>12</v>
+      </c>
+      <c r="K68" s="6">
+        <v>12</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>11101014</v>
+      </c>
+      <c r="C69">
+        <v>10001</v>
+      </c>
+      <c r="D69" s="4">
+        <v>14</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F69" s="6">
+        <v>13</v>
+      </c>
+      <c r="G69" s="6">
+        <v>13</v>
+      </c>
+      <c r="H69" s="6">
+        <v>13</v>
+      </c>
+      <c r="I69" s="6">
+        <v>13</v>
+      </c>
+      <c r="J69" s="6">
+        <v>13</v>
+      </c>
+      <c r="K69" s="6">
+        <v>13</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>11101015</v>
+      </c>
+      <c r="C70">
+        <v>10001</v>
+      </c>
+      <c r="D70" s="4">
+        <v>15</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F70" s="6">
+        <v>14</v>
+      </c>
+      <c r="G70" s="6">
+        <v>14</v>
+      </c>
+      <c r="H70" s="6">
+        <v>14</v>
+      </c>
+      <c r="I70" s="6">
+        <v>14</v>
+      </c>
+      <c r="J70" s="6">
+        <v>14</v>
+      </c>
+      <c r="K70" s="6">
+        <v>14</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>11101016</v>
+      </c>
+      <c r="C71">
+        <v>10001</v>
+      </c>
+      <c r="D71" s="4">
+        <v>16</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F71" s="6">
+        <v>15</v>
+      </c>
+      <c r="G71" s="6">
+        <v>15</v>
+      </c>
+      <c r="H71" s="6">
+        <v>15</v>
+      </c>
+      <c r="I71" s="6">
+        <v>15</v>
+      </c>
+      <c r="J71" s="6">
+        <v>15</v>
+      </c>
+      <c r="K71" s="6">
+        <v>15</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>11101017</v>
+      </c>
+      <c r="C72">
+        <v>10001</v>
+      </c>
+      <c r="D72" s="4">
+        <v>17</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F72" s="6">
+        <v>16</v>
+      </c>
+      <c r="G72" s="6">
+        <v>16</v>
+      </c>
+      <c r="H72" s="6">
+        <v>16</v>
+      </c>
+      <c r="I72" s="6">
+        <v>16</v>
+      </c>
+      <c r="J72" s="6">
+        <v>16</v>
+      </c>
+      <c r="K72" s="6">
+        <v>16</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>11101018</v>
+      </c>
+      <c r="C73">
+        <v>10001</v>
+      </c>
+      <c r="D73" s="4">
+        <v>18</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F73" s="6">
+        <v>17</v>
+      </c>
+      <c r="G73" s="6">
+        <v>17</v>
+      </c>
+      <c r="H73" s="6">
+        <v>17</v>
+      </c>
+      <c r="I73" s="6">
+        <v>17</v>
+      </c>
+      <c r="J73" s="6">
+        <v>17</v>
+      </c>
+      <c r="K73" s="6">
+        <v>17</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>11101019</v>
+      </c>
+      <c r="C74">
+        <v>10001</v>
+      </c>
+      <c r="D74" s="4">
+        <v>19</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" s="6">
+        <v>18</v>
+      </c>
+      <c r="G74" s="6">
+        <v>18</v>
+      </c>
+      <c r="H74" s="6">
+        <v>18</v>
+      </c>
+      <c r="I74" s="6">
+        <v>18</v>
+      </c>
+      <c r="J74" s="6">
+        <v>18</v>
+      </c>
+      <c r="K74" s="6">
+        <v>18</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>11101020</v>
+      </c>
+      <c r="C75">
+        <v>10001</v>
+      </c>
+      <c r="D75" s="4">
+        <v>20</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F75" s="6">
+        <v>19</v>
+      </c>
+      <c r="G75" s="6">
+        <v>19</v>
+      </c>
+      <c r="H75" s="6">
+        <v>19</v>
+      </c>
+      <c r="I75" s="6">
+        <v>19</v>
+      </c>
+      <c r="J75" s="6">
+        <v>19</v>
+      </c>
+      <c r="K75" s="6">
+        <v>19</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>11101021</v>
+      </c>
+      <c r="C76">
+        <v>10001</v>
+      </c>
+      <c r="D76" s="4">
+        <v>21</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F76" s="6">
+        <v>20</v>
+      </c>
+      <c r="G76" s="6">
+        <v>20</v>
+      </c>
+      <c r="H76" s="6">
+        <v>20</v>
+      </c>
+      <c r="I76" s="6">
+        <v>20</v>
+      </c>
+      <c r="J76" s="6">
+        <v>20</v>
+      </c>
+      <c r="K76" s="6">
+        <v>20</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>11101022</v>
+      </c>
+      <c r="C77">
+        <v>10001</v>
+      </c>
+      <c r="D77" s="4">
+        <v>22</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F77" s="6">
+        <v>21</v>
+      </c>
+      <c r="G77" s="6">
+        <v>21</v>
+      </c>
+      <c r="H77" s="6">
+        <v>21</v>
+      </c>
+      <c r="I77" s="6">
+        <v>21</v>
+      </c>
+      <c r="J77" s="6">
+        <v>21</v>
+      </c>
+      <c r="K77" s="6">
+        <v>21</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>11101023</v>
+      </c>
+      <c r="C78">
+        <v>10001</v>
+      </c>
+      <c r="D78" s="4">
+        <v>23</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F78" s="6">
+        <v>22</v>
+      </c>
+      <c r="G78" s="6">
+        <v>22</v>
+      </c>
+      <c r="H78" s="6">
+        <v>22</v>
+      </c>
+      <c r="I78" s="6">
+        <v>22</v>
+      </c>
+      <c r="J78" s="6">
+        <v>22</v>
+      </c>
+      <c r="K78" s="6">
+        <v>22</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>11101024</v>
+      </c>
+      <c r="C79">
+        <v>10001</v>
+      </c>
+      <c r="D79" s="4">
+        <v>24</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F79" s="6">
+        <v>23</v>
+      </c>
+      <c r="G79" s="6">
+        <v>23</v>
+      </c>
+      <c r="H79" s="6">
+        <v>23</v>
+      </c>
+      <c r="I79" s="6">
+        <v>23</v>
+      </c>
+      <c r="J79" s="6">
+        <v>23</v>
+      </c>
+      <c r="K79" s="6">
+        <v>23</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>11101025</v>
+      </c>
+      <c r="C80">
+        <v>10001</v>
+      </c>
+      <c r="D80" s="4">
+        <v>25</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F80" s="6">
+        <v>24</v>
+      </c>
+      <c r="G80" s="6">
+        <v>24</v>
+      </c>
+      <c r="H80" s="6">
+        <v>24</v>
+      </c>
+      <c r="I80" s="6">
+        <v>24</v>
+      </c>
+      <c r="J80" s="6">
+        <v>24</v>
+      </c>
+      <c r="K80" s="6">
+        <v>24</v>
+      </c>
+      <c r="L80" s="6" t="s">
         <v>27</v>
       </c>
     </row>

--- a/data_table/EntityAttrLevel.xlsx
+++ b/data_table/EntityAttrLevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
